--- a/rPPG_Testing_PURE.xlsx
+++ b/rPPG_Testing_PURE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darren\OneDrive\Documents\remote_PPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C44CC77-56D6-489A-A69F-192D2402E183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD74A724-B7E3-4A0D-985E-C447C72F11BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{31E259BF-1E0D-4D56-9D01-D14FAF4F9919}"/>
   </bookViews>
@@ -36,35 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
-  <si>
-    <t>POS BPM</t>
-  </si>
-  <si>
-    <t>GRGB BPM</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>mean BPM (Oximeter)</t>
   </si>
   <si>
-    <t>01-01 (Steady)</t>
-  </si>
-  <si>
-    <t>01-02 (Talking)</t>
-  </si>
-  <si>
-    <t>01-03 (Slow Translation</t>
-  </si>
-  <si>
-    <t>01-04 (Fast Translation)</t>
-  </si>
-  <si>
-    <t>01-05 (Small Rotation)</t>
-  </si>
-  <si>
-    <t>01-06 (Medium Rotation)</t>
-  </si>
-  <si>
     <t>02-01</t>
   </si>
   <si>
@@ -152,9 +128,6 @@
     <t>06-06</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>07-01</t>
   </si>
   <si>
@@ -246,6 +219,33 @@
   </si>
   <si>
     <t>POS BPM (HSCbCr)</t>
+  </si>
+  <si>
+    <t>POS (MediaPipe)</t>
+  </si>
+  <si>
+    <t>GRGB (MediaPipe)</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>01-01</t>
+  </si>
+  <si>
+    <t>01-02</t>
+  </si>
+  <si>
+    <t>01-03</t>
+  </si>
+  <si>
+    <t>01-04</t>
+  </si>
+  <si>
+    <t>01-05</t>
+  </si>
+  <si>
+    <t>01-06</t>
   </si>
 </sst>
 </file>
@@ -255,7 +255,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,12 +288,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -331,7 +325,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -340,9 +334,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -355,23 +346,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -712,61 +703,63 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.36328125" style="7" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="5.54296875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>63</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>67</v>
+        <v>55</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B2" s="5">
         <v>70.125186660029797</v>
@@ -774,34 +767,34 @@
       <c r="C2" s="5">
         <v>66.301642608262796</v>
       </c>
-      <c r="D2" s="5">
-        <v>65.745310957551794</v>
-      </c>
-      <c r="E2" s="5">
-        <v>65.745310957551794</v>
-      </c>
-      <c r="F2" s="5">
-        <v>65.745310957551794</v>
-      </c>
-      <c r="G2" s="5">
-        <v>65.745310957551794</v>
-      </c>
-      <c r="H2" s="13">
-        <v>65.745310957551794</v>
-      </c>
-      <c r="I2" s="13">
+      <c r="D2" s="12">
         <v>65.745310957551823</v>
       </c>
-      <c r="J2" s="15">
+      <c r="E2" s="13">
         <v>65.745310957551823</v>
       </c>
-      <c r="K2" s="13">
+      <c r="F2" s="12">
+        <v>65.745310957551823</v>
+      </c>
+      <c r="G2" s="12">
+        <v>65.745310957551823</v>
+      </c>
+      <c r="H2" s="12">
+        <v>65.745310957551823</v>
+      </c>
+      <c r="I2" s="12">
+        <v>65.745310957551823</v>
+      </c>
+      <c r="J2" s="12">
+        <v>65.745310957551823</v>
+      </c>
+      <c r="K2" s="12">
         <v>65.745310957551823</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="B3" s="5">
         <v>77.591454272863501</v>
@@ -809,34 +802,34 @@
       <c r="C3" s="5">
         <v>72.863568215892002</v>
       </c>
-      <c r="D3" s="5">
-        <v>72.071181413741897</v>
-      </c>
-      <c r="E3" s="5">
-        <v>72.071181413741897</v>
-      </c>
-      <c r="F3" s="5">
-        <v>72.071181413741897</v>
-      </c>
-      <c r="G3" s="5">
-        <v>72.071181413741897</v>
-      </c>
-      <c r="H3" s="13">
+      <c r="D3" s="12">
         <v>72.071181413741954</v>
       </c>
-      <c r="I3" s="13">
+      <c r="E3" s="13">
         <v>72.071181413741954</v>
       </c>
-      <c r="J3" s="15">
+      <c r="F3" s="12">
         <v>72.071181413741954</v>
       </c>
-      <c r="K3" s="13">
+      <c r="G3" s="12">
+        <v>72.071181413741954</v>
+      </c>
+      <c r="H3" s="12">
+        <v>72.071181413741954</v>
+      </c>
+      <c r="I3" s="12">
+        <v>72.071181413741954</v>
+      </c>
+      <c r="J3" s="12">
+        <v>72.071181413741954</v>
+      </c>
+      <c r="K3" s="12">
         <v>72.071181413741954</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="B4" s="5">
         <v>77.008111944838703</v>
@@ -844,34 +837,34 @@
       <c r="C4" s="5">
         <v>76.657878726424599</v>
       </c>
-      <c r="D4" s="5">
-        <v>76.178960096735096</v>
-      </c>
-      <c r="E4" s="5">
-        <v>76.178960096735096</v>
-      </c>
-      <c r="F4" s="5">
-        <v>76.178960096735096</v>
-      </c>
-      <c r="G4" s="5">
-        <v>76.178960096735096</v>
-      </c>
-      <c r="H4" s="13">
+      <c r="D4" s="12">
         <v>76.178960096735182</v>
       </c>
-      <c r="I4" s="13">
+      <c r="E4" s="13">
         <v>76.178960096735182</v>
       </c>
-      <c r="J4" s="15">
+      <c r="F4" s="12">
         <v>76.178960096735182</v>
       </c>
-      <c r="K4" s="13">
+      <c r="G4" s="12">
+        <v>76.178960096735182</v>
+      </c>
+      <c r="H4" s="12">
+        <v>76.178960096735182</v>
+      </c>
+      <c r="I4" s="12">
+        <v>76.178960096735182</v>
+      </c>
+      <c r="J4" s="12">
+        <v>76.178960096735182</v>
+      </c>
+      <c r="K4" s="12">
         <v>76.178960096735182</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B5" s="5">
         <v>75.179927302100097</v>
@@ -879,34 +872,34 @@
       <c r="C5" s="5">
         <v>74.151857835218095</v>
       </c>
-      <c r="D5" s="5">
-        <v>73.675762439807301</v>
-      </c>
-      <c r="E5" s="5">
-        <v>73.675762439807301</v>
-      </c>
-      <c r="F5" s="5">
-        <v>73.675762439807301</v>
-      </c>
-      <c r="G5" s="5">
-        <v>73.675762439807301</v>
-      </c>
-      <c r="H5" s="13">
+      <c r="D5" s="12">
         <v>73.675762439807386</v>
       </c>
-      <c r="I5" s="13">
+      <c r="E5" s="13">
         <v>73.675762439807386</v>
       </c>
-      <c r="J5" s="15">
+      <c r="F5" s="12">
         <v>73.675762439807386</v>
       </c>
-      <c r="K5" s="13">
+      <c r="G5" s="12">
+        <v>73.675762439807386</v>
+      </c>
+      <c r="H5" s="12">
+        <v>73.675762439807386</v>
+      </c>
+      <c r="I5" s="12">
+        <v>73.675762439807386</v>
+      </c>
+      <c r="J5" s="12">
+        <v>73.675762439807386</v>
+      </c>
+      <c r="K5" s="12">
         <v>73.675762439807386</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="B6" s="5">
         <v>72.637883703518796</v>
@@ -914,34 +907,34 @@
       <c r="C6" s="5">
         <v>70.077364611929099</v>
       </c>
-      <c r="D6" s="5">
-        <v>69.401878398418106</v>
-      </c>
-      <c r="E6" s="5">
-        <v>69.401878398418106</v>
-      </c>
-      <c r="F6" s="5">
-        <v>69.401878398418106</v>
-      </c>
-      <c r="G6" s="5">
-        <v>69.401878398418106</v>
-      </c>
-      <c r="H6" s="13">
+      <c r="D6" s="12">
         <v>69.401878398418191</v>
       </c>
-      <c r="I6" s="13">
+      <c r="E6" s="13">
         <v>69.401878398418191</v>
       </c>
-      <c r="J6" s="15">
+      <c r="F6" s="12">
         <v>69.401878398418191</v>
       </c>
-      <c r="K6" s="13">
+      <c r="G6" s="12">
+        <v>69.401878398418191</v>
+      </c>
+      <c r="H6" s="12">
+        <v>69.401878398418191</v>
+      </c>
+      <c r="I6" s="12">
+        <v>69.401878398418191</v>
+      </c>
+      <c r="J6" s="12">
+        <v>69.401878398418191</v>
+      </c>
+      <c r="K6" s="12">
         <v>69.401878398418191</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="B7" s="5">
         <v>72.0547337278106</v>
@@ -949,34 +942,34 @@
       <c r="C7" s="5">
         <v>69.230769230769198</v>
       </c>
-      <c r="D7" s="5">
-        <v>68.789808917197405</v>
-      </c>
-      <c r="E7" s="5">
-        <v>68.789808917197405</v>
-      </c>
-      <c r="F7" s="5">
-        <v>68.789808917197405</v>
-      </c>
-      <c r="G7" s="5">
-        <v>68.789808917197405</v>
-      </c>
-      <c r="H7" s="13">
+      <c r="D7" s="12">
         <v>68.789808917197448</v>
       </c>
-      <c r="I7" s="13">
+      <c r="E7" s="13">
         <v>68.789808917197448</v>
       </c>
-      <c r="J7" s="15">
+      <c r="F7" s="12">
         <v>68.789808917197448</v>
       </c>
-      <c r="K7" s="13">
+      <c r="G7" s="12">
+        <v>68.789808917197448</v>
+      </c>
+      <c r="H7" s="12">
+        <v>68.789808917197448</v>
+      </c>
+      <c r="I7" s="12">
+        <v>68.789808917197448</v>
+      </c>
+      <c r="J7" s="12">
+        <v>68.789808917197448</v>
+      </c>
+      <c r="K7" s="12">
         <v>68.789808917197448</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B8" s="5">
         <v>72.984432913269004</v>
@@ -984,34 +977,34 @@
       <c r="C8" s="5">
         <v>69.3847294292068</v>
       </c>
-      <c r="D8" s="5">
-        <v>68.8572829818538</v>
-      </c>
-      <c r="E8" s="5">
-        <v>68.8572829818538</v>
-      </c>
-      <c r="F8" s="5">
-        <v>68.8572829818538</v>
-      </c>
-      <c r="G8" s="5">
-        <v>68.8572829818538</v>
-      </c>
-      <c r="H8" s="13">
+      <c r="D8" s="12">
         <v>68.857282981853842</v>
       </c>
-      <c r="I8" s="13">
+      <c r="E8" s="13">
         <v>68.857282981853842</v>
       </c>
-      <c r="J8" s="15">
+      <c r="F8" s="12">
         <v>68.857282981853842</v>
       </c>
-      <c r="K8" s="13">
+      <c r="G8" s="12">
         <v>68.857282981853842</v>
       </c>
+      <c r="H8" s="12">
+        <v>68.857282981853842</v>
+      </c>
+      <c r="I8" s="12">
+        <v>68.857282981853842</v>
+      </c>
+      <c r="J8" s="12">
+        <v>68.857282981853842</v>
+      </c>
+      <c r="K8" s="12">
+        <v>68.857282981853842</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>10</v>
+      <c r="A9" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="B9" s="5">
         <v>81.456010230179004</v>
@@ -1019,34 +1012,34 @@
       <c r="C9" s="5">
         <v>77.340153452685399</v>
       </c>
-      <c r="D9" s="5">
-        <v>76.673427991886399</v>
-      </c>
-      <c r="E9" s="5">
-        <v>75.760649087220997</v>
-      </c>
-      <c r="F9" s="5">
-        <v>75.760649087220997</v>
-      </c>
-      <c r="G9" s="5">
-        <v>75.760649087220997</v>
-      </c>
-      <c r="H9" s="13">
+      <c r="D9" s="12">
+        <v>75.760649087221083</v>
+      </c>
+      <c r="E9" s="13">
+        <v>75.760649087221083</v>
+      </c>
+      <c r="F9" s="12">
+        <v>75.760649087221083</v>
+      </c>
+      <c r="G9" s="12">
         <v>76.673427991886413</v>
       </c>
-      <c r="I9" s="13">
+      <c r="H9" s="12">
         <v>76.673427991886413</v>
       </c>
-      <c r="J9" s="15">
+      <c r="I9" s="12">
         <v>76.673427991886413</v>
       </c>
-      <c r="K9" s="13">
+      <c r="J9" s="12">
+        <v>76.673427991886413</v>
+      </c>
+      <c r="K9" s="12">
         <v>76.673427991886413</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B10" s="5">
         <v>73.932304858392797</v>
@@ -1054,34 +1047,34 @@
       <c r="C10" s="5">
         <v>69.629288510246298</v>
       </c>
-      <c r="D10" s="5">
-        <v>68.375286041189895</v>
-      </c>
-      <c r="E10" s="5">
-        <v>45.3089244851258</v>
-      </c>
-      <c r="F10" s="5">
-        <v>69.199084668192199</v>
-      </c>
-      <c r="G10" s="5">
-        <v>69.199084668192199</v>
-      </c>
-      <c r="H10" s="13">
+      <c r="D10" s="12">
         <v>69.199084668192228</v>
       </c>
-      <c r="I10" s="13">
+      <c r="E10" s="13">
         <v>69.199084668192228</v>
       </c>
-      <c r="J10" s="15">
+      <c r="F10" s="12">
         <v>69.199084668192228</v>
       </c>
-      <c r="K10" s="13">
+      <c r="G10" s="12">
         <v>69.199084668192228</v>
+      </c>
+      <c r="H10" s="12">
+        <v>69.199084668192228</v>
+      </c>
+      <c r="I10" s="12">
+        <v>69.199084668192228</v>
+      </c>
+      <c r="J10" s="12">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="K10" s="12">
+        <v>69.230769230769226</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B11" s="5">
         <v>72.332277765211401</v>
@@ -1089,34 +1082,34 @@
       <c r="C11" s="5">
         <v>70.843700520244198</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="12">
+        <v>71.223021582733821</v>
+      </c>
+      <c r="E11" s="14">
+        <v>51.798561151079141</v>
+      </c>
+      <c r="F11" s="12">
         <v>70.413669064748206</v>
       </c>
-      <c r="E11" s="5">
-        <v>42.895683453237403</v>
-      </c>
-      <c r="F11" s="5">
-        <v>71.223021582733793</v>
-      </c>
-      <c r="G11" s="6">
-        <v>51.798561151079099</v>
-      </c>
-      <c r="H11" s="13">
+      <c r="G11" s="12">
         <v>70.413669064748206</v>
       </c>
-      <c r="I11" s="13">
+      <c r="H11" s="12">
         <v>70.413669064748206</v>
       </c>
-      <c r="J11" s="15">
+      <c r="I11" s="12">
         <v>70.413669064748206</v>
       </c>
-      <c r="K11" s="13">
-        <v>70.413669064748206</v>
+      <c r="J11" s="12">
+        <v>70.445344129554655</v>
+      </c>
+      <c r="K11" s="12">
+        <v>70.445344129554655</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B12" s="5">
         <v>74.801152737752105</v>
@@ -1124,34 +1117,34 @@
       <c r="C12" s="5">
         <v>73.565627456117298</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="12">
         <v>74.0625</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="13">
         <v>74.0625</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="12">
         <v>74.0625</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="12">
         <v>74.0625</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <v>74.0625</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="12">
         <v>74.0625</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="12">
         <v>74.0625</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="12">
         <v>74.0625</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B13" s="5">
         <v>72.510225213564496</v>
@@ -1159,34 +1152,34 @@
       <c r="C13" s="5">
         <v>68.030028475278201</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="12">
+        <v>67.627380339680897</v>
+      </c>
+      <c r="E13" s="13">
         <v>68.553782810087498</v>
       </c>
-      <c r="E13" s="5">
-        <v>67.627380339680897</v>
-      </c>
-      <c r="F13" s="5">
-        <v>67.627380339680897</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="12">
         <v>68.553782810087498</v>
       </c>
-      <c r="H13" s="13">
-        <v>67.627380339680897</v>
-      </c>
-      <c r="I13" s="13">
-        <v>67.627380339680897</v>
-      </c>
-      <c r="J13" s="15">
-        <v>67.627380339680897</v>
-      </c>
-      <c r="K13" s="13">
-        <v>67.627380339680897</v>
+      <c r="G13" s="12">
+        <v>68.553782810087498</v>
+      </c>
+      <c r="H13" s="12">
+        <v>68.553782810087498</v>
+      </c>
+      <c r="I13" s="12">
+        <v>68.553782810087498</v>
+      </c>
+      <c r="J13" s="12">
+        <v>67.662203913491254</v>
+      </c>
+      <c r="K13" s="12">
+        <v>67.662203913491254</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B14" s="5">
         <v>53.529186846800897</v>
@@ -1194,34 +1187,34 @@
       <c r="C14" s="5">
         <v>53.2245730308437</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="5">
-        <v>52.887537993920901</v>
-      </c>
-      <c r="G14" s="5">
-        <v>52.887537993920901</v>
-      </c>
-      <c r="H14" s="13">
+      <c r="D14" s="12">
         <v>52.887537993920979</v>
       </c>
-      <c r="I14" s="13">
+      <c r="E14" s="13">
         <v>52.887537993920979</v>
       </c>
-      <c r="J14" s="15">
+      <c r="F14" s="12">
         <v>52.887537993920979</v>
       </c>
-      <c r="K14" s="13">
+      <c r="G14" s="12">
+        <v>52.887537993920979</v>
+      </c>
+      <c r="H14" s="12">
+        <v>52.887537993920979</v>
+      </c>
+      <c r="I14" s="12">
+        <v>52.887537993920979</v>
+      </c>
+      <c r="J14" s="12">
+        <v>52.887537993920979</v>
+      </c>
+      <c r="K14" s="12">
         <v>52.887537993920979</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B15" s="5">
         <v>56.987534280727999</v>
@@ -1229,34 +1222,34 @@
       <c r="C15" s="5">
         <v>56.544502617801001</v>
       </c>
-      <c r="D15" s="5">
-        <v>55.274888558692403</v>
-      </c>
-      <c r="E15" s="5">
-        <v>55.274888558692403</v>
-      </c>
-      <c r="F15" s="5">
-        <v>55.274888558692403</v>
-      </c>
-      <c r="G15" s="5">
-        <v>55.274888558692403</v>
-      </c>
-      <c r="H15" s="13">
+      <c r="D15" s="12">
         <v>55.274888558692417</v>
       </c>
-      <c r="I15" s="13">
+      <c r="E15" s="13">
         <v>55.274888558692417</v>
       </c>
-      <c r="J15" s="15">
+      <c r="F15" s="12">
         <v>55.274888558692417</v>
       </c>
-      <c r="K15" s="13">
+      <c r="G15" s="12">
+        <v>55.274888558692417</v>
+      </c>
+      <c r="H15" s="12">
+        <v>55.274888558692417</v>
+      </c>
+      <c r="I15" s="12">
+        <v>55.274888558692417</v>
+      </c>
+      <c r="J15" s="12">
+        <v>55.274888558692417</v>
+      </c>
+      <c r="K15" s="12">
         <v>55.274888558692417</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B16" s="5">
         <v>58.433784714252901</v>
@@ -1264,34 +1257,34 @@
       <c r="C16" s="5">
         <v>56.185448703236098</v>
       </c>
-      <c r="D16" s="5">
-        <v>55.636363636363598</v>
-      </c>
-      <c r="E16" s="5">
-        <v>41.727272727272698</v>
-      </c>
-      <c r="F16" s="5">
-        <v>55.636363636363598</v>
-      </c>
-      <c r="G16" s="5">
-        <v>55.636363636363598</v>
-      </c>
-      <c r="H16" s="13">
+      <c r="D16" s="12">
         <v>55.63636363636364</v>
       </c>
-      <c r="I16" s="13">
+      <c r="E16" s="13">
         <v>55.63636363636364</v>
       </c>
-      <c r="J16" s="15">
+      <c r="F16" s="12">
         <v>55.63636363636364</v>
       </c>
-      <c r="K16" s="13">
+      <c r="G16" s="12">
+        <v>55.63636363636364</v>
+      </c>
+      <c r="H16" s="12">
+        <v>55.63636363636364</v>
+      </c>
+      <c r="I16" s="12">
+        <v>55.63636363636364</v>
+      </c>
+      <c r="J16" s="12">
+        <v>56.45454545454546</v>
+      </c>
+      <c r="K16" s="12">
         <v>55.63636363636364</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B17" s="5">
         <v>56.747418051189896</v>
@@ -1299,34 +1292,34 @@
       <c r="C17" s="5">
         <v>56.578356533452997</v>
       </c>
-      <c r="D17" s="5">
-        <v>84.187082405345194</v>
-      </c>
-      <c r="E17" s="5">
-        <v>50.512249443207097</v>
-      </c>
-      <c r="F17" s="5">
-        <v>55.322939866369701</v>
-      </c>
-      <c r="G17" s="5">
-        <v>56.124721603563401</v>
-      </c>
-      <c r="H17" s="13">
+      <c r="D17" s="12">
         <v>55.322939866369722</v>
       </c>
-      <c r="I17" s="13">
-        <v>55.322939866369722</v>
-      </c>
-      <c r="J17" s="15">
-        <v>55.322939866369722</v>
-      </c>
-      <c r="K17" s="13">
-        <v>55.322939866369722</v>
+      <c r="E17" s="13">
+        <v>56.124721603563479</v>
+      </c>
+      <c r="F17" s="12">
+        <v>57.728285077951</v>
+      </c>
+      <c r="G17" s="12">
+        <v>56.926503340757243</v>
+      </c>
+      <c r="H17" s="12">
+        <v>57.728285077951</v>
+      </c>
+      <c r="I17" s="12">
+        <v>57.728285077951</v>
+      </c>
+      <c r="J17" s="12">
+        <v>55.347593582887697</v>
+      </c>
+      <c r="K17" s="12">
+        <v>55.347593582887697</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B18" s="5">
         <v>56.688703800104101</v>
@@ -1334,34 +1327,34 @@
       <c r="C18" s="5">
         <v>56.220718375845898</v>
       </c>
-      <c r="D18" s="5">
-        <v>55.813953488372</v>
-      </c>
-      <c r="E18" s="5">
-        <v>55.813953488372</v>
-      </c>
-      <c r="F18" s="5">
-        <v>55.813953488372</v>
-      </c>
-      <c r="G18" s="5">
-        <v>55.813953488372</v>
-      </c>
-      <c r="H18" s="13">
+      <c r="D18" s="12">
         <v>55.813953488372093</v>
       </c>
-      <c r="I18" s="13">
+      <c r="E18" s="13">
         <v>55.813953488372093</v>
       </c>
-      <c r="J18" s="15">
+      <c r="F18" s="12">
         <v>55.813953488372093</v>
       </c>
-      <c r="K18" s="13">
+      <c r="G18" s="12">
+        <v>55.813953488372093</v>
+      </c>
+      <c r="H18" s="12">
+        <v>55.813953488372093</v>
+      </c>
+      <c r="I18" s="12">
+        <v>55.813953488372093</v>
+      </c>
+      <c r="J18" s="12">
+        <v>55.813953488372093</v>
+      </c>
+      <c r="K18" s="12">
         <v>55.813953488372093</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B19" s="5">
         <v>59.292701863353997</v>
@@ -1369,34 +1362,34 @@
       <c r="C19" s="5">
         <v>56.832298136645903</v>
       </c>
-      <c r="D19" s="5">
-        <v>56.307692307692299</v>
-      </c>
-      <c r="E19" s="5">
-        <v>56.307692307692299</v>
-      </c>
-      <c r="F19" s="5">
-        <v>58.153846153846096</v>
-      </c>
-      <c r="G19" s="5">
-        <v>56.307692307692299</v>
-      </c>
-      <c r="H19" s="13">
+      <c r="D19" s="12">
         <v>58.15384615384616</v>
       </c>
-      <c r="I19" s="13">
+      <c r="E19" s="13">
+        <v>56.307692307692307</v>
+      </c>
+      <c r="F19" s="12">
         <v>58.15384615384616</v>
       </c>
-      <c r="J19" s="15">
+      <c r="G19" s="12">
         <v>58.15384615384616</v>
       </c>
-      <c r="K19" s="13">
+      <c r="H19" s="12">
+        <v>58.15384615384616</v>
+      </c>
+      <c r="I19" s="12">
+        <v>58.15384615384616</v>
+      </c>
+      <c r="J19" s="12">
+        <v>58.15384615384616</v>
+      </c>
+      <c r="K19" s="12">
         <v>58.15384615384616</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B20" s="5">
         <v>60.254689564068599</v>
@@ -1404,34 +1397,34 @@
       <c r="C20" s="5">
         <v>62.774108322324899</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="12">
         <v>59.663437021927599</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="13">
         <v>59.663437021927599</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="12">
+        <v>58.74553799082102</v>
+      </c>
+      <c r="G20" s="12">
+        <v>58.74553799082102</v>
+      </c>
+      <c r="H20" s="12">
+        <v>58.74553799082102</v>
+      </c>
+      <c r="I20" s="12">
+        <v>58.74553799082102</v>
+      </c>
+      <c r="J20" s="12">
         <v>59.663437021927599</v>
       </c>
-      <c r="G20" s="5">
-        <v>59.663437021927599</v>
-      </c>
-      <c r="H20" s="13">
-        <v>59.663437021927599</v>
-      </c>
-      <c r="I20" s="13">
-        <v>59.663437021927599</v>
-      </c>
-      <c r="J20" s="15">
-        <v>59.663437021927599</v>
-      </c>
-      <c r="K20" s="13">
+      <c r="K20" s="12">
         <v>59.663437021927599</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B21" s="5">
         <v>66.652022834450193</v>
@@ -1439,34 +1432,34 @@
       <c r="C21" s="5">
         <v>64.333581533879297</v>
       </c>
-      <c r="D21" s="5">
-        <v>64.333581533879297</v>
-      </c>
-      <c r="E21" s="5">
-        <v>63.968410661401698</v>
-      </c>
-      <c r="F21" s="5">
-        <v>63.968410661401698</v>
-      </c>
-      <c r="G21" s="5">
-        <v>63.968410661401698</v>
-      </c>
-      <c r="H21" s="13">
+      <c r="D21" s="12">
         <v>63.968410661401776</v>
       </c>
-      <c r="I21" s="13">
+      <c r="E21" s="13">
         <v>63.968410661401776</v>
       </c>
-      <c r="J21" s="15">
+      <c r="F21" s="12">
         <v>63.968410661401776</v>
       </c>
-      <c r="K21" s="13">
+      <c r="G21" s="12">
+        <v>64.8568608094768</v>
+      </c>
+      <c r="H21" s="12">
+        <v>63.968410661401776</v>
+      </c>
+      <c r="I21" s="12">
+        <v>64.8568608094768</v>
+      </c>
+      <c r="J21" s="12">
+        <v>63.968410661401776</v>
+      </c>
+      <c r="K21" s="12">
         <v>63.968410661401776</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B22" s="5">
         <v>68.6688903713586</v>
@@ -1474,34 +1467,34 @@
       <c r="C22" s="5">
         <v>68.045363575717104</v>
       </c>
-      <c r="D22" s="5">
-        <v>67.430586161304504</v>
-      </c>
-      <c r="E22" s="5">
-        <v>65.843984133979703</v>
-      </c>
-      <c r="F22" s="5">
-        <v>66.637285147642103</v>
-      </c>
-      <c r="G22" s="5">
-        <v>67.430586161304504</v>
-      </c>
-      <c r="H22" s="13">
+      <c r="D22" s="12">
+        <v>66.637285147642132</v>
+      </c>
+      <c r="E22" s="13">
         <v>67.430586161304547</v>
       </c>
-      <c r="I22" s="13">
+      <c r="F22" s="12">
         <v>67.430586161304547</v>
       </c>
-      <c r="J22" s="15">
+      <c r="G22" s="12">
+        <v>61.877479065667693</v>
+      </c>
+      <c r="H22" s="12">
         <v>67.430586161304547</v>
       </c>
-      <c r="K22" s="13">
+      <c r="I22" s="12">
+        <v>61.877479065667693</v>
+      </c>
+      <c r="J22" s="12">
+        <v>67.430586161304547</v>
+      </c>
+      <c r="K22" s="12">
         <v>67.430586161304547</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B23" s="5">
         <v>70.1886168100595</v>
@@ -1509,34 +1502,34 @@
       <c r="C23" s="5">
         <v>72.270019854400999</v>
       </c>
-      <c r="D23" s="5">
-        <v>71.81060938185</v>
-      </c>
-      <c r="E23" s="5">
-        <v>56.0280578693555</v>
-      </c>
-      <c r="F23" s="5">
-        <v>71.81060938185</v>
-      </c>
-      <c r="G23" s="5">
-        <v>71.81060938185</v>
-      </c>
-      <c r="H23" s="13">
+      <c r="D23" s="12">
         <v>71.810609381850071</v>
       </c>
-      <c r="I23" s="13">
+      <c r="E23" s="13">
         <v>71.810609381850071</v>
       </c>
-      <c r="J23" s="15">
+      <c r="F23" s="12">
+        <v>71.021481806225339</v>
+      </c>
+      <c r="G23" s="15">
+        <v>57.606313020605</v>
+      </c>
+      <c r="H23" s="12">
+        <v>71.021481806225339</v>
+      </c>
+      <c r="I23" s="12">
+        <v>57.606313020605</v>
+      </c>
+      <c r="J23" s="12">
         <v>71.810609381850071</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="12">
         <v>71.810609381850071</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B24" s="5">
         <v>65.686274509803894</v>
@@ -1544,34 +1537,34 @@
       <c r="C24" s="5">
         <v>68.730650154798695</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="12">
         <v>68.307692307692307</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="13">
         <v>68.307692307692307</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="12">
         <v>68.307692307692307</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="12">
         <v>68.307692307692307</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="12">
         <v>68.307692307692307</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="12">
         <v>68.307692307692307</v>
       </c>
-      <c r="J24" s="15">
-        <v>68.307692307692307</v>
-      </c>
-      <c r="K24" s="13">
-        <v>68.307692307692307</v>
+      <c r="J24" s="12">
+        <v>68.342739866598251</v>
+      </c>
+      <c r="K24" s="12">
+        <v>68.342739866598251</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B25" s="5">
         <v>64.863239074550094</v>
@@ -1579,244 +1572,244 @@
       <c r="C25" s="5">
         <v>66.632390745501297</v>
       </c>
-      <c r="D25" s="5">
-        <v>66.055045871559599</v>
-      </c>
-      <c r="E25" s="5">
-        <v>65.137614678898998</v>
-      </c>
-      <c r="F25" s="5">
-        <v>66.055045871559599</v>
-      </c>
-      <c r="G25" s="5">
-        <v>66.055045871559599</v>
-      </c>
-      <c r="H25" s="13">
+      <c r="D25" s="12">
         <v>66.055045871559628</v>
       </c>
-      <c r="I25" s="13">
+      <c r="E25" s="13">
         <v>66.055045871559628</v>
       </c>
-      <c r="J25" s="15">
+      <c r="F25" s="12">
         <v>66.055045871559628</v>
       </c>
-      <c r="K25" s="13">
+      <c r="G25" s="12">
+        <v>66.055045871559628</v>
+      </c>
+      <c r="H25" s="12">
+        <v>66.055045871559628</v>
+      </c>
+      <c r="I25" s="12">
+        <v>66.055045871559628</v>
+      </c>
+      <c r="J25" s="12">
+        <v>66.055045871559628</v>
+      </c>
+      <c r="K25" s="12">
         <v>66.055045871559628</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="8">
+        <v>19</v>
+      </c>
+      <c r="B26" s="7">
         <v>45.971566387407897</v>
       </c>
       <c r="C26" s="5">
         <v>46.610814927646601</v>
       </c>
-      <c r="D26" s="8">
-        <v>46.270161290322498</v>
-      </c>
-      <c r="E26" s="8">
-        <v>46.270161290322498</v>
-      </c>
-      <c r="F26" s="5">
-        <v>46.270161290322498</v>
-      </c>
-      <c r="G26" s="5">
-        <v>46.270161290322498</v>
-      </c>
-      <c r="H26" s="13">
+      <c r="D26" s="12">
         <v>46.270161290322577</v>
       </c>
-      <c r="I26" s="13">
+      <c r="E26" s="13">
         <v>46.270161290322577</v>
       </c>
-      <c r="J26" s="15">
+      <c r="F26" s="12">
         <v>46.270161290322577</v>
       </c>
-      <c r="K26" s="13">
+      <c r="G26" s="12">
+        <v>46.270161290322577</v>
+      </c>
+      <c r="H26" s="12">
+        <v>46.270161290322577</v>
+      </c>
+      <c r="I26" s="12">
+        <v>46.270161290322577</v>
+      </c>
+      <c r="J26" s="12">
+        <v>46.270161290322577</v>
+      </c>
+      <c r="K26" s="12">
         <v>46.270161290322577</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="8">
+        <v>20</v>
+      </c>
+      <c r="B27" s="7">
         <v>51.359488593632399</v>
       </c>
       <c r="C27" s="5">
         <v>55.953873151165702</v>
       </c>
-      <c r="D27" s="8">
-        <v>49.3519441674975</v>
-      </c>
-      <c r="E27" s="8">
-        <v>44.865403788634097</v>
-      </c>
-      <c r="F27" s="5">
-        <v>55.633100697906201</v>
-      </c>
-      <c r="G27" s="5">
-        <v>60.119641076769597</v>
-      </c>
-      <c r="H27" s="13">
+      <c r="D27" s="12">
         <v>55.633100697906293</v>
       </c>
-      <c r="I27" s="13">
+      <c r="E27" s="13">
+        <v>60.119641076769689</v>
+      </c>
+      <c r="F27" s="12">
+        <v>59.222333000997011</v>
+      </c>
+      <c r="G27" s="12">
+        <v>59.222333000997011</v>
+      </c>
+      <c r="H27" s="12">
+        <v>59.222333000997011</v>
+      </c>
+      <c r="I27" s="12">
+        <v>59.222333000997011</v>
+      </c>
+      <c r="J27" s="12">
+        <v>56.530408773678971</v>
+      </c>
+      <c r="K27" s="12">
         <v>55.633100697906293</v>
-      </c>
-      <c r="J27" s="15">
-        <v>61.016949152542367</v>
-      </c>
-      <c r="K27" s="13">
-        <v>61.016949152542367</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="8">
+        <v>21</v>
+      </c>
+      <c r="B28" s="7">
         <v>50.815830201193897</v>
       </c>
       <c r="C28" s="5">
         <v>50.143709927039502</v>
       </c>
-      <c r="D28" s="8">
-        <v>45.019745502413301</v>
-      </c>
-      <c r="E28" s="8">
-        <v>45.019745502413301</v>
-      </c>
-      <c r="F28" s="5">
-        <v>49.758666081614699</v>
-      </c>
-      <c r="G28" s="5">
-        <v>49.758666081614699</v>
-      </c>
-      <c r="H28" s="13">
+      <c r="D28" s="12">
         <v>49.758666081614741</v>
       </c>
-      <c r="I28" s="13">
+      <c r="E28" s="13">
         <v>49.758666081614741</v>
       </c>
-      <c r="J28" s="15">
+      <c r="F28" s="12">
+        <v>48.968845985081167</v>
+      </c>
+      <c r="G28" s="15">
+        <v>37.911364633611242</v>
+      </c>
+      <c r="H28" s="12">
+        <v>48.968845985081167</v>
+      </c>
+      <c r="I28" s="12">
+        <v>37.911364633611242</v>
+      </c>
+      <c r="J28" s="12">
         <v>49.758666081614741</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="12">
         <v>49.758666081614741</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="8">
+        <v>22</v>
+      </c>
+      <c r="B29" s="7">
         <v>53.6635371179039</v>
       </c>
       <c r="C29" s="5">
         <v>52.663755458515197</v>
       </c>
-      <c r="D29" s="8">
-        <v>53.742968411942798</v>
-      </c>
-      <c r="E29" s="8">
-        <v>52.964084811769702</v>
-      </c>
-      <c r="F29" s="5">
-        <v>52.185201211596699</v>
-      </c>
-      <c r="G29" s="5">
-        <v>52.185201211596699</v>
-      </c>
-      <c r="H29" s="13">
+      <c r="D29" s="12">
         <v>52.185201211596713</v>
       </c>
-      <c r="I29" s="13">
+      <c r="E29" s="13">
         <v>52.185201211596713</v>
       </c>
-      <c r="J29" s="15">
+      <c r="F29" s="12">
+        <v>52.964084811769787</v>
+      </c>
+      <c r="G29" s="12">
         <v>52.185201211596713</v>
       </c>
-      <c r="K29" s="13">
+      <c r="H29" s="12">
+        <v>52.964084811769787</v>
+      </c>
+      <c r="I29" s="12">
+        <v>52.185201211596713</v>
+      </c>
+      <c r="J29" s="12">
+        <v>52.185201211596713</v>
+      </c>
+      <c r="K29" s="12">
         <v>52.185201211596713</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="8">
+        <v>23</v>
+      </c>
+      <c r="B30" s="7">
         <v>48.896117253792703</v>
       </c>
       <c r="C30" s="5">
         <v>49.987143224479297</v>
       </c>
-      <c r="D30" s="8">
-        <v>49.516046867040203</v>
-      </c>
-      <c r="E30" s="8">
-        <v>49.516046867040203</v>
-      </c>
-      <c r="F30" s="5">
-        <v>49.516046867040203</v>
-      </c>
-      <c r="G30" s="5">
-        <v>49.516046867040203</v>
-      </c>
-      <c r="H30" s="13">
+      <c r="D30" s="12">
         <v>49.516046867040238</v>
       </c>
-      <c r="I30" s="13">
+      <c r="E30" s="13">
         <v>49.516046867040238</v>
       </c>
-      <c r="J30" s="15">
+      <c r="F30" s="12">
         <v>49.516046867040238</v>
       </c>
-      <c r="K30" s="13">
+      <c r="G30" s="12">
+        <v>48.599083036169127</v>
+      </c>
+      <c r="H30" s="12">
         <v>49.516046867040238</v>
+      </c>
+      <c r="I30" s="12">
+        <v>48.599083036169127</v>
+      </c>
+      <c r="J30" s="12">
+        <v>49.541284403669721</v>
+      </c>
+      <c r="K30" s="12">
+        <v>49.541284403669721</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="8">
+        <v>24</v>
+      </c>
+      <c r="B31" s="7">
         <v>55.337984496124001</v>
       </c>
       <c r="C31" s="5">
         <v>52.093023255813897</v>
       </c>
-      <c r="D31" s="8">
-        <v>51.402345741968297</v>
-      </c>
-      <c r="E31" s="8">
-        <v>51.402345741968297</v>
-      </c>
-      <c r="F31" s="5">
-        <v>50.484446710861803</v>
-      </c>
-      <c r="G31" s="5">
-        <v>51.402345741968297</v>
-      </c>
-      <c r="H31" s="13">
+      <c r="D31" s="12">
         <v>50.48444671086181</v>
       </c>
-      <c r="I31" s="13">
+      <c r="E31" s="13">
         <v>51.402345741968389</v>
       </c>
-      <c r="J31" s="15">
+      <c r="F31" s="12">
         <v>50.48444671086181</v>
       </c>
-      <c r="K31" s="13">
+      <c r="G31" s="12">
+        <v>51.402345741968389</v>
+      </c>
+      <c r="H31" s="12">
+        <v>50.48444671086181</v>
+      </c>
+      <c r="I31" s="12">
+        <v>51.402345741968389</v>
+      </c>
+      <c r="J31" s="12">
+        <v>50.48444671086181</v>
+      </c>
+      <c r="K31" s="12">
         <v>51.402345741968389</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B32" s="5">
         <v>64.978952772073896</v>
@@ -1824,34 +1817,34 @@
       <c r="C32" s="5">
         <v>62.833675564681698</v>
       </c>
-      <c r="D32" s="5">
-        <v>63.013698630136901</v>
-      </c>
-      <c r="E32" s="5">
-        <v>63.013698630136901</v>
-      </c>
-      <c r="F32" s="5">
-        <v>63.013698630136901</v>
-      </c>
-      <c r="G32" s="5">
-        <v>63.013698630136901</v>
-      </c>
-      <c r="H32" s="13">
+      <c r="D32" s="12">
         <v>63.013698630136993</v>
       </c>
-      <c r="I32" s="13">
+      <c r="E32" s="13">
         <v>63.013698630136993</v>
       </c>
-      <c r="J32" s="15">
+      <c r="F32" s="12">
         <v>63.013698630136993</v>
       </c>
-      <c r="K32" s="13">
+      <c r="G32" s="12">
+        <v>63.013698630136993</v>
+      </c>
+      <c r="H32" s="12">
+        <v>63.013698630136993</v>
+      </c>
+      <c r="I32" s="12">
+        <v>63.013698630136993</v>
+      </c>
+      <c r="J32" s="12">
+        <v>63.013698630136993</v>
+      </c>
+      <c r="K32" s="12">
         <v>63.013698630136993</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B33" s="5">
         <v>74.586252771618604</v>
@@ -1859,34 +1852,34 @@
       <c r="C33" s="5">
         <v>68.647450110864696</v>
       </c>
-      <c r="D33" s="5">
-        <v>68.223887174966904</v>
-      </c>
-      <c r="E33" s="5">
-        <v>44.424856765094702</v>
-      </c>
-      <c r="F33" s="5">
-        <v>68.223887174966904</v>
-      </c>
-      <c r="G33" s="5">
-        <v>68.223887174966904</v>
-      </c>
-      <c r="H33" s="13">
+      <c r="D33" s="12">
         <v>68.223887174966947</v>
       </c>
-      <c r="I33" s="13">
+      <c r="E33" s="13">
         <v>68.223887174966947</v>
       </c>
-      <c r="J33" s="15">
+      <c r="F33" s="12">
         <v>68.223887174966947</v>
       </c>
-      <c r="K33" s="13">
+      <c r="G33" s="12">
+        <v>68.223887174966947</v>
+      </c>
+      <c r="H33" s="12">
+        <v>68.223887174966947</v>
+      </c>
+      <c r="I33" s="12">
+        <v>68.223887174966947</v>
+      </c>
+      <c r="J33" s="12">
+        <v>68.223887174966947</v>
+      </c>
+      <c r="K33" s="12">
         <v>68.223887174966947</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B34" s="5">
         <v>72.302862214333203</v>
@@ -1894,69 +1887,69 @@
       <c r="C34" s="5">
         <v>73.485688928333701</v>
       </c>
-      <c r="D34" s="9">
-        <v>78.226514486391494</v>
-      </c>
-      <c r="E34" s="5">
-        <v>46.619841966637303</v>
-      </c>
-      <c r="F34" s="5">
-        <v>73.485513608428406</v>
-      </c>
-      <c r="G34" s="6">
-        <v>49.780509218612799</v>
-      </c>
-      <c r="H34" s="13">
+      <c r="D34" s="12">
         <v>73.485513608428448</v>
       </c>
-      <c r="I34" s="14">
-        <v>40.298507462686572</v>
-      </c>
-      <c r="J34" s="15">
-        <v>73.485513608428448</v>
-      </c>
-      <c r="K34" s="14">
-        <v>40.298507462686572</v>
+      <c r="E34" s="14">
+        <v>49.780509218612814</v>
+      </c>
+      <c r="F34" s="12">
+        <v>72.695346795434588</v>
+      </c>
+      <c r="G34" s="12">
+        <v>72.695346795434588</v>
+      </c>
+      <c r="H34" s="12">
+        <v>72.695346795434588</v>
+      </c>
+      <c r="I34" s="12">
+        <v>72.695346795434588</v>
+      </c>
+      <c r="J34" s="12">
+        <v>72.695346795434588</v>
+      </c>
+      <c r="K34" s="12">
+        <v>72.695346795434588</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="9">
+        <v>28</v>
+      </c>
+      <c r="B35" s="8">
         <v>68.3076527991782</v>
       </c>
       <c r="C35" s="5">
         <v>67.488443759630101</v>
       </c>
-      <c r="D35" s="5">
-        <v>67.075038284839195</v>
-      </c>
-      <c r="E35" s="5">
-        <v>67.075038284839195</v>
-      </c>
-      <c r="F35" s="5">
-        <v>67.075038284839195</v>
-      </c>
-      <c r="G35" s="5">
-        <v>67.075038284839195</v>
-      </c>
-      <c r="H35" s="13">
+      <c r="D35" s="12">
         <v>67.075038284839209</v>
       </c>
-      <c r="I35" s="13">
+      <c r="E35" s="13">
         <v>67.075038284839209</v>
       </c>
-      <c r="J35" s="15">
+      <c r="F35" s="12">
         <v>67.075038284839209</v>
       </c>
-      <c r="K35" s="13">
+      <c r="G35" s="12">
         <v>67.075038284839209</v>
+      </c>
+      <c r="H35" s="12">
+        <v>67.075038284839209</v>
+      </c>
+      <c r="I35" s="12">
+        <v>67.075038284839209</v>
+      </c>
+      <c r="J35" s="12">
+        <v>67.109295199182839</v>
+      </c>
+      <c r="K35" s="12">
+        <v>67.109295199182839</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B36" s="5">
         <v>68.496421267893595</v>
@@ -1964,34 +1957,34 @@
       <c r="C36" s="5">
         <v>68.098159509202404</v>
       </c>
-      <c r="D36" s="5">
-        <v>50.279329608938497</v>
-      </c>
-      <c r="E36" s="5">
-        <v>50.279329608938497</v>
-      </c>
-      <c r="F36" s="5">
-        <v>68.562722194007094</v>
-      </c>
-      <c r="G36" s="5">
-        <v>67.648552564753601</v>
-      </c>
-      <c r="H36" s="13">
+      <c r="D36" s="12">
         <v>68.562722194007122</v>
       </c>
-      <c r="I36" s="13">
+      <c r="E36" s="13">
         <v>67.648552564753686</v>
       </c>
-      <c r="J36" s="15">
+      <c r="F36" s="12">
         <v>68.562722194007122</v>
       </c>
-      <c r="K36" s="13">
+      <c r="G36" s="12">
+        <v>67.648552564753686</v>
+      </c>
+      <c r="H36" s="12">
         <v>68.562722194007122</v>
+      </c>
+      <c r="I36" s="12">
+        <v>67.648552564753686</v>
+      </c>
+      <c r="J36" s="12">
+        <v>68.562722194007122</v>
+      </c>
+      <c r="K36" s="12">
+        <v>67.648552564753686</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B37" s="5">
         <v>125.266718506998</v>
@@ -1999,34 +1992,34 @@
       <c r="C37" s="5">
         <v>127.83825816485199</v>
       </c>
-      <c r="D37" s="5">
-        <v>126.20266120777799</v>
-      </c>
-      <c r="E37" s="5">
-        <v>126.20266120777799</v>
-      </c>
-      <c r="F37" s="5">
-        <v>126.20266120777799</v>
-      </c>
-      <c r="G37" s="5">
-        <v>126.20266120777799</v>
-      </c>
-      <c r="H37" s="13">
+      <c r="D37" s="12">
         <v>126.2026612077789</v>
       </c>
-      <c r="I37" s="13">
+      <c r="E37" s="13">
         <v>126.2026612077789</v>
       </c>
-      <c r="J37" s="15">
+      <c r="F37" s="12">
         <v>126.2026612077789</v>
       </c>
-      <c r="K37" s="13">
+      <c r="G37" s="12">
+        <v>126.2026612077789</v>
+      </c>
+      <c r="H37" s="12">
+        <v>126.2026612077789</v>
+      </c>
+      <c r="I37" s="12">
+        <v>126.2026612077789</v>
+      </c>
+      <c r="J37" s="12">
+        <v>126.2026612077789</v>
+      </c>
+      <c r="K37" s="12">
         <v>126.2026612077789</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B38" s="5">
         <v>134.78934798184801</v>
@@ -2034,34 +2027,34 @@
       <c r="C38" s="5">
         <v>143.58729400525399</v>
       </c>
-      <c r="D38" s="5">
-        <v>141.74573055028401</v>
-      </c>
-      <c r="E38" s="5">
-        <v>142.599620493358</v>
-      </c>
-      <c r="F38" s="5">
-        <v>142.599620493358</v>
-      </c>
-      <c r="G38" s="6">
-        <v>41.840607210626104</v>
-      </c>
-      <c r="H38" s="13">
+      <c r="D38" s="12">
         <v>142.59962049335871</v>
       </c>
-      <c r="I38" s="13">
+      <c r="E38" s="14">
+        <v>41.840607210626189</v>
+      </c>
+      <c r="F38" s="12">
         <v>142.59962049335871</v>
       </c>
-      <c r="J38" s="15">
+      <c r="G38" s="12">
         <v>142.59962049335871</v>
       </c>
-      <c r="K38" s="13">
+      <c r="H38" s="12">
+        <v>142.59962049335871</v>
+      </c>
+      <c r="I38" s="12">
+        <v>142.59962049335871</v>
+      </c>
+      <c r="J38" s="12">
+        <v>141.74573055028469</v>
+      </c>
+      <c r="K38" s="12">
         <v>142.59962049335871</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B39" s="5">
         <v>127.070695807314</v>
@@ -2069,34 +2062,34 @@
       <c r="C39" s="5">
         <v>126.048171275646</v>
       </c>
-      <c r="D39" s="5">
-        <v>125.210456357997</v>
-      </c>
-      <c r="E39" s="5">
-        <v>43.8635356668143</v>
-      </c>
-      <c r="F39" s="5">
-        <v>125.210456357997</v>
-      </c>
-      <c r="G39" s="6">
-        <v>40.673460345591401</v>
-      </c>
-      <c r="H39" s="13">
+      <c r="D39" s="12">
         <v>125.2104563579973</v>
       </c>
-      <c r="I39" s="13">
+      <c r="E39" s="14">
+        <v>40.673460345591486</v>
+      </c>
+      <c r="F39" s="12">
         <v>125.2104563579973</v>
       </c>
-      <c r="J39" s="15">
+      <c r="G39" s="12">
         <v>125.2104563579973</v>
       </c>
-      <c r="K39" s="13">
+      <c r="H39" s="12">
+        <v>125.2104563579973</v>
+      </c>
+      <c r="I39" s="12">
+        <v>125.2104563579973</v>
+      </c>
+      <c r="J39" s="12">
+        <v>125.2104563579973</v>
+      </c>
+      <c r="K39" s="12">
         <v>125.2104563579973</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B40" s="5">
         <v>126.00556792873</v>
@@ -2104,34 +2097,34 @@
       <c r="C40" s="5">
         <v>134.69933184855199</v>
       </c>
-      <c r="D40" s="5">
-        <v>71.365638766519794</v>
-      </c>
-      <c r="E40" s="5">
-        <v>45.198237885462497</v>
-      </c>
-      <c r="F40" s="5">
-        <v>130.04405286343601</v>
-      </c>
-      <c r="G40" s="6">
-        <v>51.541850220264301</v>
-      </c>
-      <c r="H40" s="13">
+      <c r="D40" s="12">
+        <v>130.04405286343609</v>
+      </c>
+      <c r="E40" s="14">
+        <v>51.541850220264308</v>
+      </c>
+      <c r="F40" s="12">
+        <v>130.04405286343609</v>
+      </c>
+      <c r="G40" s="12">
+        <v>130.04405286343609</v>
+      </c>
+      <c r="H40" s="12">
+        <v>130.04405286343609</v>
+      </c>
+      <c r="I40" s="12">
         <v>129.25110132158591</v>
       </c>
-      <c r="I40" s="13">
-        <v>130.04405286343609</v>
-      </c>
-      <c r="J40" s="15">
-        <v>129.25110132158591</v>
-      </c>
-      <c r="K40" s="13">
-        <v>129.25110132158591</v>
+      <c r="J40" s="12">
+        <v>129.30806522697219</v>
+      </c>
+      <c r="K40" s="12">
+        <v>129.30806522697219</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B41" s="5">
         <v>132.32426127527199</v>
@@ -2139,34 +2132,34 @@
       <c r="C41" s="5">
         <v>130.63763608087001</v>
       </c>
-      <c r="D41" s="5">
-        <v>131.61688980432501</v>
-      </c>
-      <c r="E41" s="5">
-        <v>44.490216271884599</v>
-      </c>
-      <c r="F41" s="5">
-        <v>130.69001029866101</v>
-      </c>
-      <c r="G41" s="5">
-        <v>128.836251287332</v>
-      </c>
-      <c r="H41" s="13">
-        <v>135.32440782698251</v>
-      </c>
-      <c r="I41" s="13">
+      <c r="D41" s="12">
+        <v>130.69001029866121</v>
+      </c>
+      <c r="E41" s="13">
+        <v>128.8362512873326</v>
+      </c>
+      <c r="F41" s="12">
+        <v>129.76313079299689</v>
+      </c>
+      <c r="G41" s="12">
         <v>131.61688980432541</v>
       </c>
-      <c r="J41" s="15">
-        <v>135.32440782698251</v>
-      </c>
-      <c r="K41" s="13">
+      <c r="H41" s="12">
+        <v>129.76313079299689</v>
+      </c>
+      <c r="I41" s="12">
         <v>131.61688980432541</v>
+      </c>
+      <c r="J41" s="12">
+        <v>128.90262751159199</v>
+      </c>
+      <c r="K41" s="12">
+        <v>128.90262751159199</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B42" s="5">
         <v>131.725359342915</v>
@@ -2174,34 +2167,34 @@
       <c r="C42" s="5">
         <v>133.98357289527701</v>
       </c>
-      <c r="D42" s="5">
-        <v>133.16326530612201</v>
-      </c>
-      <c r="E42" s="5">
-        <v>49.5918367346938</v>
-      </c>
-      <c r="F42" s="5">
-        <v>133.16326530612201</v>
-      </c>
-      <c r="G42" s="5">
-        <v>133.16326530612201</v>
-      </c>
-      <c r="H42" s="13">
+      <c r="D42" s="12">
         <v>133.1632653061225</v>
       </c>
-      <c r="I42" s="13">
+      <c r="E42" s="13">
         <v>133.1632653061225</v>
       </c>
-      <c r="J42" s="15">
+      <c r="F42" s="12">
         <v>133.1632653061225</v>
       </c>
-      <c r="K42" s="13">
+      <c r="G42" s="12">
+        <v>133.1632653061225</v>
+      </c>
+      <c r="H42" s="12">
+        <v>133.1632653061225</v>
+      </c>
+      <c r="I42" s="12">
+        <v>133.1632653061225</v>
+      </c>
+      <c r="J42" s="12">
+        <v>133.1632653061225</v>
+      </c>
+      <c r="K42" s="12">
         <v>133.1632653061225</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B43" s="5">
         <v>49.494105586878497</v>
@@ -2209,34 +2202,34 @@
       <c r="C43" s="5">
         <v>47.052793439261897</v>
       </c>
-      <c r="D43" s="5">
-        <v>46.765155374426797</v>
-      </c>
-      <c r="E43" s="5">
-        <v>46.765155374426797</v>
-      </c>
-      <c r="F43" s="5">
-        <v>46.765155374426797</v>
-      </c>
-      <c r="G43" s="5">
-        <v>46.765155374426797</v>
-      </c>
-      <c r="H43" s="13">
+      <c r="D43" s="12">
         <v>46.76515537442689</v>
       </c>
-      <c r="I43" s="13">
+      <c r="E43" s="13">
         <v>46.76515537442689</v>
       </c>
-      <c r="J43" s="15">
+      <c r="F43" s="12">
         <v>46.76515537442689</v>
       </c>
-      <c r="K43" s="13">
+      <c r="G43" s="12">
         <v>46.76515537442689</v>
+      </c>
+      <c r="H43" s="12">
+        <v>46.76515537442689</v>
+      </c>
+      <c r="I43" s="12">
+        <v>46.76515537442689</v>
+      </c>
+      <c r="J43" s="12">
+        <v>46.788990825688067</v>
+      </c>
+      <c r="K43" s="12">
+        <v>46.788990825688067</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B44" s="5">
         <v>58.392848020434201</v>
@@ -2244,34 +2237,34 @@
       <c r="C44" s="5">
         <v>61.609195402298802</v>
       </c>
-      <c r="D44" s="5">
-        <v>61.880687563195103</v>
-      </c>
-      <c r="E44" s="5">
-        <v>60.970677451971603</v>
-      </c>
-      <c r="F44" s="5">
-        <v>61.880687563195103</v>
-      </c>
-      <c r="G44" s="5">
-        <v>61.880687563195103</v>
-      </c>
-      <c r="H44" s="13">
-        <v>60.060667340748218</v>
-      </c>
-      <c r="I44" s="13">
-        <v>60.970677451971682</v>
-      </c>
-      <c r="J44" s="15">
-        <v>60.970677451971682</v>
-      </c>
-      <c r="K44" s="13">
-        <v>60.970677451971682</v>
+      <c r="D44" s="12">
+        <v>61.880687563195153</v>
+      </c>
+      <c r="E44" s="13">
+        <v>61.880687563195153</v>
+      </c>
+      <c r="F44" s="12">
+        <v>61.880687563195153</v>
+      </c>
+      <c r="G44" s="12">
+        <v>61.880687563195153</v>
+      </c>
+      <c r="H44" s="12">
+        <v>61.880687563195153</v>
+      </c>
+      <c r="I44" s="12">
+        <v>61.880687563195153</v>
+      </c>
+      <c r="J44" s="12">
+        <v>61.880687563195153</v>
+      </c>
+      <c r="K44" s="12">
+        <v>61.880687563195153</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B45" s="5">
         <v>51.431670767166104</v>
@@ -2279,34 +2272,34 @@
       <c r="C45" s="5">
         <v>47.506150749273097</v>
       </c>
-      <c r="D45" s="5">
-        <v>47.808764940239001</v>
-      </c>
-      <c r="E45" s="5">
-        <v>47.808764940239001</v>
-      </c>
-      <c r="F45" s="5">
-        <v>47.808764940239001</v>
-      </c>
-      <c r="G45" s="5">
-        <v>47.808764940239001</v>
-      </c>
-      <c r="H45" s="13">
+      <c r="D45" s="12">
         <v>47.808764940239051</v>
       </c>
-      <c r="I45" s="13">
+      <c r="E45" s="13">
+        <v>47.808764940239051</v>
+      </c>
+      <c r="F45" s="12">
         <v>47.011952191235061</v>
       </c>
-      <c r="J45" s="15">
+      <c r="G45" s="12">
+        <v>47.011952191235061</v>
+      </c>
+      <c r="H45" s="12">
+        <v>47.011952191235061</v>
+      </c>
+      <c r="I45" s="12">
+        <v>47.011952191235061</v>
+      </c>
+      <c r="J45" s="12">
         <v>47.808764940239051</v>
       </c>
-      <c r="K45" s="13">
+      <c r="K45" s="12">
         <v>47.808764940239051</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B46" s="5">
         <v>55.146865409907903</v>
@@ -2314,34 +2307,34 @@
       <c r="C46" s="5">
         <v>48.925909688733</v>
       </c>
-      <c r="D46" s="5">
-        <v>48.585111014366497</v>
-      </c>
-      <c r="E46" s="5">
-        <v>48.585111014366497</v>
-      </c>
-      <c r="F46" s="5">
-        <v>48.585111014366497</v>
-      </c>
-      <c r="G46" s="5">
-        <v>48.585111014366497</v>
-      </c>
-      <c r="H46" s="13">
+      <c r="D46" s="12">
         <v>48.585111014366568</v>
       </c>
-      <c r="I46" s="13">
+      <c r="E46" s="13">
         <v>48.585111014366568</v>
       </c>
-      <c r="J46" s="15">
+      <c r="F46" s="12">
         <v>48.585111014366568</v>
       </c>
-      <c r="K46" s="13">
+      <c r="G46" s="12">
+        <v>48.585111014366568</v>
+      </c>
+      <c r="H46" s="12">
+        <v>48.585111014366568</v>
+      </c>
+      <c r="I46" s="12">
+        <v>48.585111014366568</v>
+      </c>
+      <c r="J46" s="12">
+        <v>48.585111014366568</v>
+      </c>
+      <c r="K46" s="12">
         <v>48.585111014366568</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B47" s="5">
         <v>52.521569646569603</v>
@@ -2349,34 +2342,34 @@
       <c r="C47" s="5">
         <v>52.390852390852402</v>
       </c>
-      <c r="D47" s="5">
-        <v>51.665812403895401</v>
-      </c>
-      <c r="E47" s="5">
-        <v>51.665812403895401</v>
-      </c>
-      <c r="F47" s="5">
-        <v>51.665812403895401</v>
-      </c>
-      <c r="G47" s="5">
-        <v>51.665812403895401</v>
-      </c>
-      <c r="H47" s="13">
+      <c r="D47" s="12">
         <v>51.665812403895437</v>
       </c>
-      <c r="I47" s="13">
+      <c r="E47" s="13">
         <v>51.665812403895437</v>
       </c>
-      <c r="J47" s="15">
+      <c r="F47" s="12">
         <v>51.665812403895437</v>
       </c>
-      <c r="K47" s="13">
+      <c r="G47" s="12">
+        <v>51.665812403895437</v>
+      </c>
+      <c r="H47" s="12">
+        <v>51.665812403895437</v>
+      </c>
+      <c r="I47" s="12">
+        <v>51.665812403895437</v>
+      </c>
+      <c r="J47" s="12">
+        <v>51.665812403895437</v>
+      </c>
+      <c r="K47" s="12">
         <v>51.665812403895437</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B48" s="5">
         <v>54.8261648745519</v>
@@ -2384,34 +2377,34 @@
       <c r="C48" s="5">
         <v>55.299539170506897</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="12">
         <v>54.989816700611001</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="13">
         <v>54.989816700611001</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="12">
         <v>54.989816700611001</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="12">
         <v>54.989816700611001</v>
       </c>
-      <c r="H48" s="13">
-        <v>54.073319755600807</v>
-      </c>
-      <c r="I48" s="13">
-        <v>54.073319755600807</v>
-      </c>
-      <c r="J48" s="15">
-        <v>54.073319755600807</v>
-      </c>
-      <c r="K48" s="13">
+      <c r="H48" s="12">
+        <v>54.989816700611001</v>
+      </c>
+      <c r="I48" s="12">
+        <v>54.989816700611001</v>
+      </c>
+      <c r="J48" s="12">
+        <v>54.989816700611001</v>
+      </c>
+      <c r="K48" s="12">
         <v>54.073319755600807</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B49" s="5">
         <v>46.532377783465499</v>
@@ -2419,34 +2412,34 @@
       <c r="C49" s="5">
         <v>46.071154338367002</v>
       </c>
-      <c r="D49" s="5">
-        <v>45.801526717557202</v>
-      </c>
-      <c r="E49" s="5">
-        <v>45.801526717557202</v>
-      </c>
-      <c r="F49" s="5">
-        <v>45.801526717557202</v>
-      </c>
-      <c r="G49" s="5">
-        <v>45.801526717557202</v>
-      </c>
-      <c r="H49" s="13">
-        <v>44.885496183206108</v>
-      </c>
-      <c r="I49" s="13">
-        <v>44.885496183206108</v>
-      </c>
-      <c r="J49" s="15">
+      <c r="D49" s="12">
         <v>45.801526717557252</v>
       </c>
-      <c r="K49" s="13">
+      <c r="E49" s="13">
+        <v>45.801526717557252</v>
+      </c>
+      <c r="F49" s="12">
+        <v>45.801526717557252</v>
+      </c>
+      <c r="G49" s="12">
+        <v>45.801526717557252</v>
+      </c>
+      <c r="H49" s="12">
+        <v>45.801526717557252</v>
+      </c>
+      <c r="I49" s="12">
+        <v>45.801526717557252</v>
+      </c>
+      <c r="J49" s="12">
+        <v>45.801526717557252</v>
+      </c>
+      <c r="K49" s="12">
         <v>45.801526717557252</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B50" s="5">
         <v>50.815211970074799</v>
@@ -2454,34 +2447,34 @@
       <c r="C50" s="5">
         <v>53.865336658354103</v>
       </c>
-      <c r="D50" s="5">
-        <v>53.544868616757498</v>
-      </c>
-      <c r="E50" s="5">
+      <c r="D50" s="12">
+        <v>53.544868616757562</v>
+      </c>
+      <c r="E50" s="13">
         <v>52.652454139811603</v>
       </c>
-      <c r="F50" s="5">
-        <v>53.544868616757498</v>
-      </c>
-      <c r="G50" s="5">
+      <c r="F50" s="12">
+        <v>53.544868616757562</v>
+      </c>
+      <c r="G50" s="12">
         <v>52.652454139811603</v>
       </c>
-      <c r="H50" s="13">
-        <v>49.082796232027761</v>
-      </c>
-      <c r="I50" s="13">
-        <v>56.222112047595438</v>
-      </c>
-      <c r="J50" s="16">
-        <v>65.146256817055033</v>
-      </c>
-      <c r="K50" s="13">
+      <c r="H50" s="12">
         <v>53.544868616757562</v>
+      </c>
+      <c r="I50" s="12">
+        <v>52.652454139811603</v>
+      </c>
+      <c r="J50" s="12">
+        <v>52.678571428571431</v>
+      </c>
+      <c r="K50" s="12">
+        <v>52.678571428571431</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B51" s="5">
         <v>48.310959507042199</v>
@@ -2489,34 +2482,34 @@
       <c r="C51" s="5">
         <v>48.3274647887323</v>
       </c>
-      <c r="D51" s="5">
-        <v>47.264770240700201</v>
-      </c>
-      <c r="E51" s="5">
-        <v>58.293216630196902</v>
-      </c>
-      <c r="F51" s="5">
-        <v>48.052516411378498</v>
-      </c>
-      <c r="G51" s="5">
-        <v>48.052516411378498</v>
-      </c>
-      <c r="H51" s="14">
-        <v>67.746170678336981</v>
-      </c>
-      <c r="I51" s="13">
-        <v>47.264770240700223</v>
-      </c>
-      <c r="J51" s="16">
-        <v>66.958424507658648</v>
-      </c>
-      <c r="K51" s="13">
+      <c r="D51" s="12">
+        <v>48.052516411378562</v>
+      </c>
+      <c r="E51" s="13">
+        <v>48.052516411378562</v>
+      </c>
+      <c r="F51" s="12">
+        <v>48.052516411378562</v>
+      </c>
+      <c r="G51" s="12">
+        <v>48.052516411378562</v>
+      </c>
+      <c r="H51" s="12">
+        <v>48.052516411378562</v>
+      </c>
+      <c r="I51" s="12">
+        <v>48.052516411378562</v>
+      </c>
+      <c r="J51" s="12">
+        <v>48.052516411378562</v>
+      </c>
+      <c r="K51" s="12">
         <v>48.052516411378562</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B52" s="5">
         <v>47.964250830240204</v>
@@ -2524,34 +2517,34 @@
       <c r="C52" s="5">
         <v>47.118577847235699</v>
       </c>
-      <c r="D52" s="5">
-        <v>54.439705312136397</v>
-      </c>
-      <c r="E52" s="5">
-        <v>67.0027142303218</v>
-      </c>
-      <c r="F52" s="5">
-        <v>46.762310973245398</v>
-      </c>
-      <c r="G52" s="5">
-        <v>46.762310973245398</v>
-      </c>
-      <c r="H52" s="13">
-        <v>44.668476153547893</v>
-      </c>
-      <c r="I52" s="13">
-        <v>40.480806514152768</v>
-      </c>
-      <c r="J52" s="15">
+      <c r="D52" s="12">
         <v>46.762310973245448</v>
       </c>
-      <c r="K52" s="13">
-        <v>44.668476153547893</v>
+      <c r="E52" s="13">
+        <v>46.762310973245448</v>
+      </c>
+      <c r="F52" s="12">
+        <v>46.762310973245448</v>
+      </c>
+      <c r="G52" s="12">
+        <v>46.762310973245448</v>
+      </c>
+      <c r="H52" s="12">
+        <v>46.762310973245448</v>
+      </c>
+      <c r="I52" s="12">
+        <v>46.762310973245448</v>
+      </c>
+      <c r="J52" s="12">
+        <v>46.762310973245448</v>
+      </c>
+      <c r="K52" s="12">
+        <v>46.762310973245448</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B53" s="5">
         <v>46.956086286594697</v>
@@ -2559,34 +2552,34 @@
       <c r="C53" s="5">
         <v>47.149460708782698</v>
       </c>
-      <c r="D53" s="5">
-        <v>46.788990825688003</v>
-      </c>
-      <c r="E53" s="5">
-        <v>46.788990825688003</v>
-      </c>
-      <c r="F53" s="5">
-        <v>46.788990825688003</v>
-      </c>
-      <c r="G53" s="5">
-        <v>46.788990825688003</v>
-      </c>
-      <c r="H53" s="13">
+      <c r="D53" s="12">
         <v>46.788990825688067</v>
       </c>
-      <c r="I53" s="14">
-        <v>61.467889908256879</v>
-      </c>
-      <c r="J53" s="15">
+      <c r="E53" s="13">
         <v>46.788990825688067</v>
       </c>
-      <c r="K53" s="14">
-        <v>61.467889908256879</v>
+      <c r="F53" s="12">
+        <v>46.788990825688067</v>
+      </c>
+      <c r="G53" s="12">
+        <v>46.788990825688067</v>
+      </c>
+      <c r="H53" s="12">
+        <v>46.788990825688067</v>
+      </c>
+      <c r="I53" s="12">
+        <v>46.788990825688067</v>
+      </c>
+      <c r="J53" s="12">
+        <v>46.812850586435502</v>
+      </c>
+      <c r="K53" s="12">
+        <v>46.812850586435502</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B54" s="5">
         <v>48.342886127314202</v>
@@ -2594,34 +2587,34 @@
       <c r="C54" s="5">
         <v>49.302561501394798</v>
       </c>
-      <c r="D54" s="5">
-        <v>49.016641452344899</v>
-      </c>
-      <c r="E54" s="5">
-        <v>49.016641452344899</v>
-      </c>
-      <c r="F54" s="5">
-        <v>49.016641452344899</v>
-      </c>
-      <c r="G54" s="5">
-        <v>49.016641452344899</v>
-      </c>
-      <c r="H54" s="13">
-        <v>50.832072617246602</v>
-      </c>
-      <c r="I54" s="13">
-        <v>43.570347957639953</v>
-      </c>
-      <c r="J54" s="15">
+      <c r="D54" s="12">
+        <v>49.016641452344928</v>
+      </c>
+      <c r="E54" s="13">
+        <v>49.016641452344928</v>
+      </c>
+      <c r="F54" s="12">
+        <v>49.016641452344928</v>
+      </c>
+      <c r="G54" s="12">
         <v>49.924357034795783</v>
       </c>
-      <c r="K54" s="13">
-        <v>43.570347957639953</v>
+      <c r="H54" s="12">
+        <v>49.016641452344928</v>
+      </c>
+      <c r="I54" s="12">
+        <v>49.924357034795783</v>
+      </c>
+      <c r="J54" s="12">
+        <v>49.016641452344928</v>
+      </c>
+      <c r="K54" s="12">
+        <v>49.016641452344928</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B55" s="5">
         <v>83.482216494845304</v>
@@ -2629,34 +2622,34 @@
       <c r="C55" s="5">
         <v>86.288659793814404</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="12">
         <v>84.836065573770497</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="13">
         <v>84.836065573770497</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="12">
         <v>84.836065573770497</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="12">
         <v>84.836065573770497</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H55" s="12">
         <v>84.836065573770497</v>
       </c>
-      <c r="I55" s="13">
+      <c r="I55" s="12">
         <v>84.836065573770497</v>
       </c>
-      <c r="J55" s="15">
+      <c r="J55" s="12">
         <v>84.836065573770497</v>
       </c>
-      <c r="K55" s="13">
+      <c r="K55" s="12">
         <v>84.836065573770497</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B56" s="5">
         <v>98.885627530364303</v>
@@ -2664,34 +2657,34 @@
       <c r="C56" s="5">
         <v>102.024291497975</v>
       </c>
-      <c r="D56" s="5">
-        <v>100.250878073256</v>
-      </c>
-      <c r="E56" s="5">
-        <v>100.250878073256</v>
-      </c>
-      <c r="F56" s="5">
-        <v>100.250878073256</v>
-      </c>
-      <c r="G56" s="5">
-        <v>100.250878073256</v>
-      </c>
-      <c r="H56" s="13">
+      <c r="D56" s="12">
         <v>100.2508780732564</v>
       </c>
-      <c r="I56" s="13">
+      <c r="E56" s="13">
         <v>100.2508780732564</v>
       </c>
-      <c r="J56" s="15">
+      <c r="F56" s="12">
         <v>100.2508780732564</v>
       </c>
-      <c r="K56" s="13">
+      <c r="G56" s="12">
+        <v>100.2508780732564</v>
+      </c>
+      <c r="H56" s="12">
+        <v>100.2508780732564</v>
+      </c>
+      <c r="I56" s="12">
+        <v>100.2508780732564</v>
+      </c>
+      <c r="J56" s="12">
+        <v>100.2508780732564</v>
+      </c>
+      <c r="K56" s="12">
         <v>100.2508780732564</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B57" s="5">
         <v>75.0745450559087</v>
@@ -2699,34 +2692,34 @@
       <c r="C57" s="5">
         <v>72.615654461740803</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="12">
         <v>72</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="13">
         <v>72</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="12">
         <v>72</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="12">
         <v>72</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H57" s="12">
         <v>72</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I57" s="12">
         <v>72</v>
       </c>
-      <c r="J57" s="15">
+      <c r="J57" s="12">
         <v>72</v>
       </c>
-      <c r="K57" s="13">
+      <c r="K57" s="12">
         <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B58" s="5">
         <v>78.368250539956804</v>
@@ -2734,34 +2727,34 @@
       <c r="C58" s="5">
         <v>76.198704103671702</v>
       </c>
-      <c r="D58" s="5">
-        <v>75.481386392811203</v>
-      </c>
-      <c r="E58" s="5">
-        <v>41.591784338895998</v>
-      </c>
-      <c r="F58" s="5">
-        <v>75.481386392811203</v>
-      </c>
-      <c r="G58" s="5">
-        <v>75.481386392811203</v>
-      </c>
-      <c r="H58" s="13">
+      <c r="D58" s="12">
         <v>75.481386392811288</v>
       </c>
-      <c r="I58" s="13">
+      <c r="E58" s="13">
         <v>75.481386392811288</v>
       </c>
-      <c r="J58" s="15">
+      <c r="F58" s="12">
         <v>75.481386392811288</v>
       </c>
-      <c r="K58" s="13">
+      <c r="G58" s="12">
+        <v>75.481386392811288</v>
+      </c>
+      <c r="H58" s="12">
+        <v>75.481386392811288</v>
+      </c>
+      <c r="I58" s="12">
+        <v>75.481386392811288</v>
+      </c>
+      <c r="J58" s="12">
+        <v>75.481386392811288</v>
+      </c>
+      <c r="K58" s="12">
         <v>75.481386392811288</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B59" s="5">
         <v>77.306248392903001</v>
@@ -2769,34 +2762,34 @@
       <c r="C59" s="5">
         <v>74.055026999228602</v>
       </c>
-      <c r="D59" s="5">
-        <v>73.506891271056602</v>
-      </c>
-      <c r="E59" s="5">
-        <v>42.266462480857498</v>
-      </c>
-      <c r="F59" s="5">
-        <v>73.506891271056602</v>
-      </c>
-      <c r="G59" s="5">
-        <v>73.506891271056602</v>
-      </c>
-      <c r="H59" s="13">
+      <c r="D59" s="12">
         <v>73.506891271056659</v>
       </c>
-      <c r="I59" s="13">
+      <c r="E59" s="13">
         <v>73.506891271056659</v>
       </c>
-      <c r="J59" s="15">
+      <c r="F59" s="12">
         <v>73.506891271056659</v>
       </c>
-      <c r="K59" s="13">
+      <c r="G59" s="12">
+        <v>73.506891271056659</v>
+      </c>
+      <c r="H59" s="12">
+        <v>73.506891271056659</v>
+      </c>
+      <c r="I59" s="12">
+        <v>73.506891271056659</v>
+      </c>
+      <c r="J59" s="12">
+        <v>73.506891271056659</v>
+      </c>
+      <c r="K59" s="12">
         <v>73.506891271056659</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B60" s="5">
         <v>78.470451612903204</v>
@@ -2804,34 +2797,34 @@
       <c r="C60" s="5">
         <v>78.038709677419305</v>
       </c>
-      <c r="D60" s="5">
-        <v>78.461538461538396</v>
-      </c>
-      <c r="E60" s="5">
-        <v>46.153846153846096</v>
-      </c>
-      <c r="F60" s="5">
-        <v>78.461538461538396</v>
-      </c>
-      <c r="G60" s="5">
-        <v>78.461538461538396</v>
-      </c>
-      <c r="H60" s="13">
+      <c r="D60" s="12">
         <v>78.461538461538467</v>
       </c>
-      <c r="I60" s="13">
+      <c r="E60" s="13">
         <v>78.461538461538467</v>
       </c>
-      <c r="J60" s="15">
+      <c r="F60" s="12">
         <v>78.461538461538467</v>
       </c>
-      <c r="K60" s="13">
+      <c r="G60" s="12">
         <v>78.461538461538467</v>
       </c>
+      <c r="H60" s="12">
+        <v>78.461538461538467</v>
+      </c>
+      <c r="I60" s="12">
+        <v>78.461538461538467</v>
+      </c>
+      <c r="J60" s="12">
+        <v>78.461538461538467</v>
+      </c>
+      <c r="K60" s="12">
+        <v>78.461538461538467</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
